--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
@@ -799,7 +799,7 @@
     <t>2015-11-13 00:30:27</t>
   </si>
   <si>
-    <t>2016-06-28 05:47:59</t>
+    <t>2016-06-28 05:48:38</t>
   </si>
   <si>
     <t>virtualization\hyperv_on_windows</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
@@ -799,7 +799,7 @@
     <t>2015-11-13 00:30:27</t>
   </si>
   <si>
-    <t>2016-06-28 05:48:38</t>
+    <t>2016-06-28 05:49:14</t>
   </si>
   <si>
     <t>virtualization\hyperv_on_windows</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
@@ -799,7 +799,7 @@
     <t>2015-11-13 00:30:27</t>
   </si>
   <si>
-    <t>2016-06-28 05:49:14</t>
+    <t>2016-06-28 05:49:46</t>
   </si>
   <si>
     <t>virtualization\hyperv_on_windows</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/handback-status.xlsx
@@ -799,7 +799,7 @@
     <t>2015-11-13 00:30:27</t>
   </si>
   <si>
-    <t>2016-06-28 05:49:46</t>
+    <t>2016-06-28 11:52:33</t>
   </si>
   <si>
     <t>virtualization\hyperv_on_windows</t>
